--- a/src/main/resources/data/updateFilterPipeline.xlsx
+++ b/src/main/resources/data/updateFilterPipeline.xlsx
@@ -100,7 +100,7 @@
     <t>{ "projectId": 1426,"graphId": 2762,"id": null,"name":"test"}</t>
   </si>
   <si>
-    <t>图分析视图-updateFilterPipeline-跨账号不可重做</t>
+    <t>图分析视图-updateFilterPipeline-跨账号不可操作</t>
   </si>
   <si>
     <t>{"projectId":1334,"graphId":2497,"id": 1000,"name":"test"}</t>
@@ -135,10 +135,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -176,20 +176,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -205,14 +191,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -227,22 +249,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -252,37 +258,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,16 +281,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,31 +340,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,31 +496,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,115 +508,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,6 +618,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -633,20 +642,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,6 +689,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -676,180 +706,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2064,20 +2064,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="42.8303571428571" style="1" customWidth="1"/>
-    <col min="2" max="2" width="65.6339285714286" style="1" customWidth="1"/>
+    <col min="2" max="2" width="115.098214285714" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.2232142857143" style="1" customWidth="1"/>
     <col min="4" max="4" width="33.9285714285714" style="1" customWidth="1"/>
     <col min="5" max="16382" width="16.3482142857143" style="1" customWidth="1"/>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" ht="20.05" customHeight="1" spans="1:6">
+    <row r="6" s="1" customFormat="1" ht="20.05" customHeight="1" spans="1:6">
       <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" ht="20.05" customHeight="1" spans="1:6">
+    <row r="7" s="1" customFormat="1" ht="20.05" customHeight="1" spans="1:6">
       <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" ht="20.05" customHeight="1" spans="1:6">
+    <row r="8" s="1" customFormat="1" ht="20.05" customHeight="1" spans="1:6">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="20.05" customHeight="1" spans="1:6">
+    <row r="9" ht="20.05" customHeight="1" spans="1:6">
       <c r="A9" s="10" t="s">
         <v>24</v>
       </c>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" ht="20.05" customHeight="1" spans="1:6">
+    <row r="10" s="1" customFormat="1" ht="20.05" customHeight="1" spans="1:6">
       <c r="A10" s="10" t="s">
         <v>26</v>
       </c>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" ht="20.05" customHeight="1" spans="1:6">
+    <row r="13" s="1" customFormat="1" ht="20.05" customHeight="1" spans="1:6">
       <c r="A13" s="7" t="s">
         <v>34</v>
       </c>
@@ -2345,43 +2345,43 @@
       <c r="F14" s="8"/>
     </row>
     <row r="15" ht="20.05" customHeight="1" spans="1:6">
-      <c r="A15" s="11"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="8"/>
     </row>
     <row r="16" ht="20.05" customHeight="1" spans="1:6">
-      <c r="A16" s="11"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="8"/>
     </row>
     <row r="17" ht="20.05" customHeight="1" spans="1:6">
-      <c r="A17" s="11"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="8"/>
     </row>
     <row r="18" ht="20.05" customHeight="1" spans="1:6">
-      <c r="A18" s="11"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" ht="20.05" customHeight="1" spans="1:6">
-      <c r="A19" s="11"/>
+    <row r="19" s="1" customFormat="1" ht="20.05" customHeight="1" spans="1:6">
+      <c r="A19" s="10"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="8"/>
     </row>
     <row r="20" ht="20.05" customHeight="1" spans="1:6">
@@ -2392,6 +2392,38 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
+    <row r="21" ht="20.05" customHeight="1" spans="1:6">
+      <c r="A21" s="11"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" ht="20.05" customHeight="1" spans="1:6">
+      <c r="A22" s="11"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" ht="20.05" customHeight="1" spans="1:6">
+      <c r="A23" s="11"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" ht="20.05" customHeight="1" spans="1:6">
+      <c r="A24" s="11"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277777777777778" footer="0.277777777777778"/>
   <pageSetup paperSize="1" scale="72" orientation="portrait" useFirstPageNumber="1"/>

--- a/src/main/resources/data/updateFilterPipeline.xlsx
+++ b/src/main/resources/data/updateFilterPipeline.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="13120"/>
+    <workbookView windowWidth="28000" windowHeight="10340"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>title</t>
   </si>
@@ -49,7 +49,7 @@
     <t>图分析视图-updateFilterPipeline-缺少入参projectId</t>
   </si>
   <si>
-    <t>{"id": 1000,"graphId": 2762,"name":"test"}</t>
+    <t>{"id": 1011,"graphId": 2762,"name":"test"}</t>
   </si>
   <si>
     <t>参数错误</t>
@@ -58,7 +58,7 @@
     <t>图分析视图-updateFilterPipeline-缺少入参graphId</t>
   </si>
   <si>
-    <t>{"projectId":1426,"id": 1000,"name":"test"}</t>
+    <t>{"projectId":1426,"id": 1011,"name":"test"}</t>
   </si>
   <si>
     <t>图分析视图-updateFilterPipeline-缺少入参id</t>
@@ -70,7 +70,7 @@
     <t>图分析视图-updateFilterPipeline-缺少name</t>
   </si>
   <si>
-    <t>{ "projectId": 1426,"graphId": 2762,"id": 1000}</t>
+    <t>{ "projectId": 1426,"graphId": 2762,"id": 1011}</t>
   </si>
   <si>
     <t>f-100</t>
@@ -79,19 +79,19 @@
     <t>图分析视图-updateFilterPipeline-name为空</t>
   </si>
   <si>
-    <t>{ "projectId": 1426,"graphId": 2762,"id": 1000,"name":""}</t>
+    <t>{ "projectId": 1426,"graphId": 2762,"id": 1011,"name":""}</t>
   </si>
   <si>
     <t>图分析视图-updateFilterPipeline-projectid为空</t>
   </si>
   <si>
-    <t>{ "projectId": null,"graphId": 2762,"id": 1000,"name":"test"}</t>
+    <t>{ "projectId": null,"graphId": 2762,"id": 1011,"name":"test"}</t>
   </si>
   <si>
     <t>图分析视图-updateFilterPipeline-graphId为空</t>
   </si>
   <si>
-    <t>{ "projectId": 1426,"graphId": null,"id": 1000,"name":"test"}</t>
+    <t>{ "projectId": 1426,"graphId": null,"id": 1011,"name":"test"}</t>
   </si>
   <si>
     <t>图分析视图-updateFilterPipeline-id为空</t>
@@ -103,25 +103,28 @@
     <t>图分析视图-updateFilterPipeline-跨账号不可操作</t>
   </si>
   <si>
-    <t>{"projectId":1334,"graphId":2497,"id": 1000,"name":"test"}</t>
-  </si>
-  <si>
-    <t>无权访问</t>
+    <t>{"projectId":1334,"graphId":2497,"id": 1011,"name":"test"}</t>
+  </si>
+  <si>
+    <t>无权</t>
   </si>
   <si>
     <t>图分析视图-updateFilterPipeline-同账号非当前项目标签不能操作</t>
   </si>
   <si>
-    <t>{"projectId":1426,"graphId":2837,"id": 1000,"name":"test"}</t>
+    <t>{"projectId":1426,"graphId":2837,"id": 1011,"name":"test"}</t>
+  </si>
+  <si>
+    <t>该视图不属于此项目</t>
+  </si>
+  <si>
+    <t>图分析视图-updateFilterPipeline-项目下不存在的标签不能操作</t>
+  </si>
+  <si>
+    <t>{"projectId":1426,"graphId":2772,"id": 1011,"name":"test"}</t>
   </si>
   <si>
     <t>无权操作</t>
-  </si>
-  <si>
-    <t>图分析视图-updateFilterPipeline-项目下不存在的标签不能操作</t>
-  </si>
-  <si>
-    <t>{"projectId":1426,"graphId":2772,"id": 1000,"name":"test"}</t>
   </si>
   <si>
     <t>图分析视图-updateFilterPipeline-不存在的过滤器流程id</t>
@@ -135,10 +138,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -175,10 +178,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,23 +215,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,26 +244,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -265,9 +284,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,17 +293,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -298,10 +308,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -311,13 +321,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -340,25 +343,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,157 +523,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,11 +621,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,6 +675,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -653,45 +695,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,145 +714,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2071,7 +2074,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15:E19"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1" outlineLevelCol="5"/>
@@ -2184,10 +2187,10 @@
         <v>18</v>
       </c>
       <c r="C6" s="8">
-        <v>201</v>
+        <v>100</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E6" s="12">
         <v>1</v>
@@ -2204,10 +2207,10 @@
         <v>21</v>
       </c>
       <c r="C7" s="8">
-        <v>201</v>
+        <v>100</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E7" s="12">
         <v>1</v>
@@ -2278,7 +2281,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="8">
-        <v>401</v>
+        <v>90009</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>30</v>
@@ -2298,7 +2301,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="8">
-        <v>90009</v>
+        <v>90017</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>33</v>
@@ -2319,7 +2322,7 @@
         <v>90009</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E13" s="12">
         <v>1</v>
@@ -2328,16 +2331,16 @@
     </row>
     <row r="14" ht="20.05" customHeight="1" spans="1:6">
       <c r="A14" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="8">
         <v>90009</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E14" s="12">
         <v>1</v>
